--- a/web_ces/indicadores/ARG-FCAP_out.xlsx
+++ b/web_ces/indicadores/ARG-FCAP_out.xlsx
@@ -15168,13 +15168,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7530F768-6B67-4403-8E95-8614963E3256}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC9C871F-F4BA-4E4E-BEE2-658A65C9413D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25775046-BA14-4707-84AE-A99DA7DC56A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0721DF77-B6A2-4124-92B4-45E7CE5A4DB5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62967600-8F4B-4116-8162-30F09EBA4AAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B58A9D2E-8A56-490F-8241-38F73ADFCFE4}"/>
 </file>
--- a/web_ces/indicadores/ARG-FCAP_out.xlsx
+++ b/web_ces/indicadores/ARG-FCAP_out.xlsx
@@ -106,13 +106,13 @@
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">21/01/2026</t>
+    <t xml:space="preserve">29/01/2026</t>
   </si>
   <si>
     <t xml:space="preserve">Usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">pcohan</t>
+    <t xml:space="preserve">ysonder</t>
   </si>
   <si>
     <t xml:space="preserve">fecha</t>
@@ -1525,7 +1525,7 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>0.320036607836442</v>
+        <v>0.318796903688923</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1583,7 +1583,7 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0184415857518406</v>
+        <v>0.0189765060761802</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1653,7 +1653,7 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>0.0642501621220853</v>
+        <v>0.065462762945186</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1683,7 +1683,7 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.0771418499733285</v>
+        <v>0.0878846763764593</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -14772,7 +14772,7 @@
         <v>306</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.106076969841838</v>
+        <v>0.105530349868004</v>
       </c>
     </row>
     <row r="6">
@@ -14780,7 +14780,7 @@
         <v>307</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.145570043353615</v>
+        <v>0.145364972400695</v>
       </c>
     </row>
     <row r="7">
@@ -14788,7 +14788,7 @@
         <v>308</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.173226959180759</v>
+        <v>0.172035528252467</v>
       </c>
     </row>
     <row r="8">
@@ -14796,7 +14796,7 @@
         <v>309</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.222386713223623</v>
+        <v>0.221540653678163</v>
       </c>
     </row>
     <row r="9">
@@ -14804,7 +14804,7 @@
         <v>310</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.243052462241874</v>
+        <v>0.243953052242319</v>
       </c>
     </row>
     <row r="10">
@@ -14812,7 +14812,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.250173500751187</v>
+        <v>0.25099582503402</v>
       </c>
     </row>
     <row r="11">
@@ -14820,7 +14820,7 @@
         <v>312</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.298563269863605</v>
+        <v>0.298092299869125</v>
       </c>
     </row>
     <row r="12">
@@ -14828,7 +14828,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0.320036607836442</v>
+        <v>0.318796903688923</v>
       </c>
     </row>
     <row r="13">
@@ -14836,7 +14836,7 @@
         <v>314</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.243725507370507</v>
+        <v>0.243081795089565</v>
       </c>
     </row>
     <row r="14">
@@ -14844,7 +14844,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0.135799800264362</v>
+        <v>0.13775523974129</v>
       </c>
     </row>
     <row r="15">
@@ -14852,7 +14852,7 @@
         <v>316</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>-0.0270974190778778</v>
+        <v>-0.022176418716608</v>
       </c>
     </row>
     <row r="16">
@@ -14860,7 +14860,7 @@
         <v>317</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>-0.150867668821215</v>
+        <v>-0.146556706604334</v>
       </c>
     </row>
     <row r="17">
@@ -14868,7 +14868,7 @@
         <v>318</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>-0.161239355423299</v>
+        <v>-0.160960572063807</v>
       </c>
     </row>
     <row r="18">
@@ -14876,7 +14876,7 @@
         <v>319</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>-0.128586153829188</v>
+        <v>-0.130870344111011</v>
       </c>
     </row>
     <row r="19">
@@ -14884,7 +14884,7 @@
         <v>320</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>-0.0864935524859601</v>
+        <v>-0.0889594421594682</v>
       </c>
     </row>
     <row r="20">
@@ -14892,7 +14892,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>-0.100467869583423</v>
+        <v>-0.102989943597131</v>
       </c>
     </row>
     <row r="21">
@@ -14900,7 +14900,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>-0.144359147655412</v>
+        <v>-0.14660907785045</v>
       </c>
     </row>
     <row r="22">
@@ -14908,7 +14908,7 @@
         <v>323</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>-0.0938634391849714</v>
+        <v>-0.0954409175533065</v>
       </c>
     </row>
     <row r="23">
@@ -14916,7 +14916,7 @@
         <v>324</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>-0.0715695462156705</v>
+        <v>-0.0718768967441743</v>
       </c>
     </row>
     <row r="24">
@@ -15159,22 +15159,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC9C871F-F4BA-4E4E-BEE2-658A65C9413D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8614EC41-0580-4B08-9635-61BD2B3D0D41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0721DF77-B6A2-4124-92B4-45E7CE5A4DB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00A1FC84-8591-413E-B7AE-EB7285AE3050}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B58A9D2E-8A56-490F-8241-38F73ADFCFE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A21BBE1-9336-426F-AEE0-5BC919306424}"/>
 </file>